--- a/artifact/data/web-07.data.xlsx
+++ b/artifact/data/web-07.data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10723"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3595D929-648B-E548-93C4-75A384EEC0D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361E04EC-E653-944B-AF20-C30E7C72A226}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7360" yWindow="440" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="440" windowWidth="25600" windowHeight="7840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
+    <sheet name="hello-world" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="base">'[1]#system'!$B$2:$B$24</definedName>
@@ -36,7 +37,7 @@
     <definedName name="webcookie">'[1]#system'!$O$2:$O$8</definedName>
     <definedName name="ws">'[1]#system'!$P$2:$P$15</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,42 +50,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>800</t>
-  </si>
-  <si>
     <t>,</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>nexial.scope.fallbackToPrevious</t>
+  </si>
+  <si>
+    <t>nexial.pollWaitMs</t>
+  </si>
+  <si>
+    <t>nexial.failFast</t>
+  </si>
+  <si>
+    <t>nexial.textDelim</t>
+  </si>
+  <si>
+    <t>nexial.verbose</t>
+  </si>
+  <si>
+    <t>nexial.openResult</t>
+  </si>
+  <si>
+    <t>aut : url</t>
+  </si>
+  <si>
+    <t>aut : title</t>
+  </si>
+  <si>
+    <t>"Hello, World!" program - Wikipedia</t>
+  </si>
+  <si>
+    <t>aut : copyRight</t>
+  </si>
+  <si>
+    <t>Text is available under the Creative Commons Attribution-ShareAlike License; additional terms may apply.</t>
+  </si>
+  <si>
+    <t>aut : keyword</t>
+  </si>
+  <si>
+    <t>Hello World</t>
+  </si>
+  <si>
+    <t>newline : url</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Newline</t>
+  </si>
+  <si>
+    <t>Newline - Wikipedia</t>
+  </si>
+  <si>
+    <t>newline : title</t>
+  </si>
+  <si>
+    <t>newline : excerpt</t>
+  </si>
+  <si>
+    <t>U+2424 (SYMBOL FOR NEWLINE, ␤), U+23CE (RETURN SYMBOL, ⏎), U+240D (SYMBOL FOR CARRIAGE RETURN, ␍) and U+240A (SYMBOL FOR LINE FEED, ␊)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/%22Hello,_World!%22_program</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>nexial.scope.iteration</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>nexial.scope.fallbackToPrevious</t>
-  </si>
-  <si>
-    <t>nexial.scope.iteration</t>
-  </si>
-  <si>
-    <t>nexial.pollWaitMs</t>
-  </si>
-  <si>
-    <t>nexial.failFast</t>
-  </si>
-  <si>
-    <t>nexial.textDelim</t>
-  </si>
-  <si>
-    <t>nexial.verbose</t>
-  </si>
-  <si>
-    <t>nexial.openResult</t>
+    <t>//nexial.browser</t>
+  </si>
+  <si>
+    <t>//nexial.highlightWaitMs</t>
+  </si>
+  <si>
+    <t>//nexial.highlight</t>
   </si>
 </sst>
 </file>
@@ -213,7 +271,72 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -568,7 +691,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AAA10"/>
+  <dimension ref="A1:AAA9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -585,7 +708,7 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -595,37 +718,37 @@
     </row>
     <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
     <row r="3" spans="1:703">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="HA3" s="6"/>
-      <c r="AAA3" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="5"/>
     </row>
     <row r="4" spans="1:703">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -635,17 +758,17 @@
     </row>
     <row r="6" spans="1:703">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
     <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -654,6 +777,12 @@
       <c r="AAA7" s="5"/>
     </row>
     <row r="8" spans="1:703">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
@@ -661,9 +790,138 @@
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
     </row>
-    <row r="10" spans="1:703">
-      <c r="HA10" s="4"/>
-      <c r="AAA10" s="5"/>
+  </sheetData>
+  <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="beginsWith" dxfId="9" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="8" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="7" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02992098-561F-1944-A340-34CB95735B3B}">
+  <dimension ref="A1:AAA9"/>
+  <sheetViews>
+    <sheetView zoomScale="118" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="34" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:703">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="HA1" s="6"/>
+      <c r="AAA1" s="6"/>
+    </row>
+    <row r="2" spans="1:703">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="HA2" s="6"/>
+      <c r="AAA2" s="6"/>
+    </row>
+    <row r="3" spans="1:703">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="5"/>
+    </row>
+    <row r="4" spans="1:703">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="HA4" s="4"/>
+      <c r="AAA4" s="5"/>
+    </row>
+    <row r="5" spans="1:703">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="HA5" s="4"/>
+      <c r="AAA5" s="5"/>
+    </row>
+    <row r="6" spans="1:703">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="HA6" s="4"/>
+      <c r="AAA6" s="5"/>
+    </row>
+    <row r="7" spans="1:703">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="HA7" s="4"/>
+      <c r="AAA7" s="5"/>
+    </row>
+    <row r="8" spans="1:703">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="HA8" s="4"/>
+      <c r="AAA8" s="5"/>
+    </row>
+    <row r="9" spans="1:703">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="HA9" s="4"/>
+      <c r="AAA9" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
